--- a/assets/data/data.xlsx
+++ b/assets/data/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eho/Dropbox/Muristalden DB/SJ 21-22/21-22 10 Wissenschaftswoche/Datenanalyse/2022 bubblecharts/bubbles-muristalden-main/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucien\Documents\Gymer\Sonderwoche\bubbles-muristalden-main\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7001FAD3-2AF8-6843-A5C4-C54668C5F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BA0196-7273-417C-AE7A-B06DDB749873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27260" xr2:uid="{6B69ADE4-A701-2D46-8A67-E540E989F12C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{6B69ADE4-A701-2D46-8A67-E540E989F12C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$U$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$W$202</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="60">
   <si>
     <t>Jahr</t>
   </si>
@@ -199,13 +199,34 @@
   <si>
     <t>ueber 100 CHF</t>
   </si>
+  <si>
+    <t>geschlechtverzicht</t>
+  </si>
+  <si>
+    <t>geschlechtverzichtkat</t>
+  </si>
+  <si>
+    <t>Maennlich/ja</t>
+  </si>
+  <si>
+    <t>Maennlich/nein</t>
+  </si>
+  <si>
+    <t>Weiblich/ja</t>
+  </si>
+  <si>
+    <t>Weiblich/nein</t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -223,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -283,7 +310,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -598,33 +626,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}">
-  <dimension ref="A1:U198"/>
+  <dimension ref="A1:W198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T199" sqref="T199"/>
+    <sheetView tabSelected="1" topLeftCell="P47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6875" customWidth="1"/>
+    <col min="5" max="5" width="21.6875" customWidth="1"/>
+    <col min="6" max="8" width="20.8125" customWidth="1"/>
+    <col min="9" max="10" width="22.8125" customWidth="1"/>
+    <col min="11" max="11" width="18.8125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="20.1875" customWidth="1"/>
     <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.8125" customWidth="1"/>
+    <col min="16" max="16" width="21.1875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.1875" customWidth="1"/>
+    <col min="22" max="22" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5" customWidth="1"/>
+    <col min="24" max="24" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -682,14 +711,20 @@
       <c r="S1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -748,14 +783,20 @@
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
         <v>20</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -814,14 +855,20 @@
       <c r="S3">
         <v>2</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9">
         <v>100</v>
       </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -881,13 +928,19 @@
         <v>4</v>
       </c>
       <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
         <v>52</v>
       </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -946,14 +999,20 @@
       <c r="S5">
         <v>2</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="9">
         <v>100</v>
       </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1013,13 +1072,19 @@
         <v>3</v>
       </c>
       <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
         <v>52</v>
       </c>
-      <c r="U6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1078,14 +1143,20 @@
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7" s="9">
         <v>20</v>
       </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1145,13 +1216,19 @@
         <v>2</v>
       </c>
       <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
         <v>52</v>
       </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1211,13 +1288,19 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
         <v>52</v>
       </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1276,14 +1359,20 @@
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
         <v>5</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1343,13 +1432,19 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
         <v>52</v>
       </c>
-      <c r="U11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1408,14 +1503,20 @@
       <c r="S12">
         <v>1</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
         <v>100</v>
       </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1475,13 +1576,19 @@
         <v>3</v>
       </c>
       <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13" t="s">
         <v>52</v>
       </c>
-      <c r="U13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1541,13 +1648,19 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
         <v>42</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1606,14 +1719,20 @@
       <c r="S15">
         <v>3</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15" s="9">
         <v>100</v>
       </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1673,13 +1792,19 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
         <v>42</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1739,13 +1864,19 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
         <v>42</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1805,13 +1936,19 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>42</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1870,14 +2007,20 @@
       <c r="S19">
         <v>1</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" s="9">
         <v>10</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1937,13 +2080,19 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
         <v>52</v>
       </c>
-      <c r="U20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2003,13 +2152,19 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
         <v>42</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2069,13 +2224,19 @@
         <v>4</v>
       </c>
       <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22" t="s">
         <v>52</v>
       </c>
-      <c r="U22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2135,13 +2296,19 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
         <v>42</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2201,13 +2368,19 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
         <v>42</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2267,13 +2440,19 @@
         <v>2</v>
       </c>
       <c r="T25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>42</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2333,13 +2512,19 @@
         <v>4</v>
       </c>
       <c r="T26" t="s">
+        <v>56</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26" t="s">
         <v>52</v>
       </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2399,13 +2584,19 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>52</v>
       </c>
-      <c r="U27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2465,13 +2656,19 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28" t="s">
         <v>42</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2531,13 +2728,19 @@
         <v>2</v>
       </c>
       <c r="T29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>42</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2597,13 +2800,19 @@
         <v>2</v>
       </c>
       <c r="T30" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>52</v>
       </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2663,13 +2872,19 @@
         <v>3</v>
       </c>
       <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31" t="s">
         <v>52</v>
       </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2728,14 +2943,20 @@
       <c r="S32">
         <v>2</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32" s="9">
         <v>100</v>
       </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2794,14 +3015,20 @@
       <c r="S33">
         <v>1</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33" s="9">
         <v>20</v>
       </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2861,13 +3088,19 @@
         <v>3</v>
       </c>
       <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34" t="s">
         <v>52</v>
       </c>
-      <c r="U34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2927,13 +3160,19 @@
         <v>3</v>
       </c>
       <c r="T35" t="s">
+        <v>56</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35" t="s">
         <v>52</v>
       </c>
-      <c r="U35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2992,14 +3231,20 @@
       <c r="S36">
         <v>2</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36" s="9">
         <v>100</v>
       </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3059,13 +3304,19 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
         <v>52</v>
       </c>
-      <c r="U37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3124,14 +3375,20 @@
       <c r="S38">
         <v>2</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38" s="9">
         <v>50</v>
       </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3191,13 +3448,19 @@
         <v>3</v>
       </c>
       <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39" t="s">
         <v>52</v>
       </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3257,13 +3520,19 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
         <v>42</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3323,13 +3592,19 @@
         <v>3</v>
       </c>
       <c r="T41" t="s">
+        <v>56</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41" t="s">
         <v>52</v>
       </c>
-      <c r="U41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3389,13 +3664,19 @@
         <v>4</v>
       </c>
       <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42" t="s">
         <v>52</v>
       </c>
-      <c r="U42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3455,13 +3736,19 @@
         <v>2</v>
       </c>
       <c r="T43" t="s">
+        <v>55</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
         <v>52</v>
       </c>
-      <c r="U43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3521,13 +3808,19 @@
         <v>4</v>
       </c>
       <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44">
+        <v>4</v>
+      </c>
+      <c r="V44" t="s">
         <v>52</v>
       </c>
-      <c r="U44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3587,13 +3880,19 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45" t="s">
         <v>42</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3653,13 +3952,19 @@
         <v>2</v>
       </c>
       <c r="T46" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
         <v>52</v>
       </c>
-      <c r="U46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3719,13 +4024,19 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
         <v>42</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3785,13 +4096,19 @@
         <v>2</v>
       </c>
       <c r="T48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48" t="s">
         <v>42</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3851,13 +4168,19 @@
         <v>4</v>
       </c>
       <c r="T49" t="s">
+        <v>59</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
         <v>52</v>
       </c>
-      <c r="U49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3916,14 +4239,20 @@
       <c r="S50">
         <v>2</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50" s="9">
         <v>50</v>
       </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3982,14 +4311,20 @@
       <c r="S51">
         <v>2</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51" s="9">
         <v>20</v>
       </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4048,14 +4383,20 @@
       <c r="S52">
         <v>3</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="V52" s="9">
         <v>100</v>
       </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4114,14 +4455,20 @@
       <c r="S53">
         <v>1</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53" t="s">
+        <v>55</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53" s="9">
         <v>100</v>
       </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4181,13 +4528,19 @@
         <v>3</v>
       </c>
       <c r="T54" t="s">
+        <v>56</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54" t="s">
         <v>52</v>
       </c>
-      <c r="U54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4246,14 +4599,20 @@
       <c r="S55">
         <v>2</v>
       </c>
-      <c r="T55" s="9">
+      <c r="T55" t="s">
+        <v>55</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55" s="9">
         <v>20</v>
       </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4313,13 +4672,19 @@
         <v>2</v>
       </c>
       <c r="T56" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56" t="s">
         <v>42</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4379,13 +4744,19 @@
         <v>3</v>
       </c>
       <c r="T57" t="s">
+        <v>56</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57" t="s">
         <v>52</v>
       </c>
-      <c r="U57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4444,14 +4815,20 @@
       <c r="S58">
         <v>1</v>
       </c>
-      <c r="T58" s="9">
+      <c r="T58" t="s">
+        <v>55</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58" s="9">
         <v>50</v>
       </c>
-      <c r="U58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4510,14 +4887,20 @@
       <c r="S59">
         <v>2</v>
       </c>
-      <c r="T59" s="9">
+      <c r="T59" t="s">
+        <v>55</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59" s="9">
         <v>100</v>
       </c>
-      <c r="U59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4576,14 +4959,20 @@
       <c r="S60">
         <v>1</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T60" t="s">
+        <v>55</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60" s="9">
         <v>20</v>
       </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4643,13 +5032,19 @@
         <v>2</v>
       </c>
       <c r="T61" t="s">
+        <v>57</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61" t="s">
         <v>42</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4708,14 +5103,20 @@
       <c r="S62">
         <v>1</v>
       </c>
-      <c r="T62" s="9">
+      <c r="T62" t="s">
+        <v>57</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62" s="9">
         <v>10</v>
       </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4774,14 +5175,20 @@
       <c r="S63">
         <v>2</v>
       </c>
-      <c r="T63" s="9">
+      <c r="T63" t="s">
+        <v>55</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63" s="9">
         <v>20</v>
       </c>
-      <c r="U63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4841,13 +5248,19 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
+        <v>55</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64" t="s">
         <v>42</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4906,14 +5319,20 @@
       <c r="S65">
         <v>2</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65" t="s">
+        <v>55</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65" s="9">
         <v>50</v>
       </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4973,13 +5392,19 @@
         <v>3</v>
       </c>
       <c r="T66" t="s">
+        <v>56</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66" t="s">
         <v>42</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5038,14 +5463,20 @@
       <c r="S67">
         <v>2</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67" t="s">
+        <v>55</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67" s="9">
         <v>50</v>
       </c>
-      <c r="U67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5104,14 +5535,20 @@
       <c r="S68">
         <v>1</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68" s="9">
         <v>50</v>
       </c>
-      <c r="U68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5171,13 +5608,19 @@
         <v>3</v>
       </c>
       <c r="T69" t="s">
+        <v>56</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69" t="s">
         <v>42</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5236,14 +5679,20 @@
       <c r="S70">
         <v>1</v>
       </c>
-      <c r="T70" s="9">
+      <c r="T70" t="s">
+        <v>57</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70" s="9">
         <v>100</v>
       </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5302,14 +5751,20 @@
       <c r="S71">
         <v>1</v>
       </c>
-      <c r="T71" s="9">
+      <c r="T71" t="s">
+        <v>55</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71" s="9">
         <v>100</v>
       </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5368,14 +5823,20 @@
       <c r="S72">
         <v>2</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72" t="s">
+        <v>55</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72" s="9">
         <v>20</v>
       </c>
-      <c r="U72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5435,13 +5896,19 @@
         <v>1</v>
       </c>
       <c r="T73" t="s">
+        <v>57</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73" t="s">
         <v>42</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5501,13 +5968,19 @@
         <v>1</v>
       </c>
       <c r="T74" t="s">
+        <v>57</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74" t="s">
         <v>42</v>
       </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5567,13 +6040,19 @@
         <v>3</v>
       </c>
       <c r="T75" t="s">
+        <v>58</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75" t="s">
         <v>52</v>
       </c>
-      <c r="U75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5633,13 +6112,19 @@
         <v>2</v>
       </c>
       <c r="T76" t="s">
+        <v>57</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76" t="s">
         <v>42</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5699,13 +6184,19 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
+        <v>55</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77" t="s">
         <v>42</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5764,14 +6255,20 @@
       <c r="S78">
         <v>2</v>
       </c>
-      <c r="T78" s="9">
+      <c r="T78" t="s">
+        <v>55</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78" s="9">
         <v>50</v>
       </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5830,14 +6327,20 @@
       <c r="S79">
         <v>2</v>
       </c>
-      <c r="T79" s="9">
+      <c r="T79" t="s">
+        <v>55</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79" s="9">
         <v>50</v>
       </c>
-      <c r="U79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5897,13 +6400,19 @@
         <v>4</v>
       </c>
       <c r="T80" t="s">
+        <v>58</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80" t="s">
         <v>52</v>
       </c>
-      <c r="U80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5963,13 +6472,19 @@
         <v>3</v>
       </c>
       <c r="T81" t="s">
+        <v>58</v>
+      </c>
+      <c r="U81">
+        <v>4</v>
+      </c>
+      <c r="V81" t="s">
         <v>52</v>
       </c>
-      <c r="U81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6029,13 +6544,19 @@
         <v>3</v>
       </c>
       <c r="T82" t="s">
+        <v>58</v>
+      </c>
+      <c r="U82">
+        <v>4</v>
+      </c>
+      <c r="V82" t="s">
         <v>42</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6094,14 +6615,20 @@
       <c r="S83">
         <v>1</v>
       </c>
-      <c r="T83" s="9">
+      <c r="T83" t="s">
+        <v>57</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83" s="9">
         <v>50</v>
       </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6161,13 +6688,19 @@
         <v>4</v>
       </c>
       <c r="T84" t="s">
+        <v>56</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84" t="s">
         <v>52</v>
       </c>
-      <c r="U84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6227,13 +6760,19 @@
         <v>2</v>
       </c>
       <c r="T85" t="s">
+        <v>57</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85" t="s">
         <v>52</v>
       </c>
-      <c r="U85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6292,14 +6831,20 @@
       <c r="S86">
         <v>1</v>
       </c>
-      <c r="T86" s="9">
+      <c r="T86" t="s">
+        <v>57</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86" s="9">
         <v>50</v>
       </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6359,13 +6904,19 @@
         <v>1</v>
       </c>
       <c r="T87" t="s">
+        <v>55</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87" t="s">
         <v>52</v>
       </c>
-      <c r="U87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6425,13 +6976,19 @@
         <v>1</v>
       </c>
       <c r="T88" t="s">
+        <v>57</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88" t="s">
         <v>42</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6490,14 +7047,20 @@
       <c r="S89">
         <v>2</v>
       </c>
-      <c r="T89" s="9">
+      <c r="T89" t="s">
+        <v>57</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89" s="9">
         <v>100</v>
       </c>
-      <c r="U89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6557,13 +7120,19 @@
         <v>1</v>
       </c>
       <c r="T90" t="s">
+        <v>57</v>
+      </c>
+      <c r="U90">
+        <v>3</v>
+      </c>
+      <c r="V90" t="s">
         <v>42</v>
       </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6623,13 +7192,19 @@
         <v>2</v>
       </c>
       <c r="T91" t="s">
+        <v>55</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91" t="s">
         <v>42</v>
       </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6688,14 +7263,20 @@
       <c r="S92">
         <v>3</v>
       </c>
-      <c r="T92" s="9">
+      <c r="T92" t="s">
+        <v>58</v>
+      </c>
+      <c r="U92">
+        <v>4</v>
+      </c>
+      <c r="V92" s="9">
         <v>50</v>
       </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6755,13 +7336,19 @@
         <v>1</v>
       </c>
       <c r="T93" t="s">
+        <v>57</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93" t="s">
         <v>42</v>
       </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6821,13 +7408,19 @@
         <v>1</v>
       </c>
       <c r="T94" t="s">
+        <v>55</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="V94" t="s">
         <v>42</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6886,14 +7479,20 @@
       <c r="S95">
         <v>3</v>
       </c>
-      <c r="T95" s="9">
+      <c r="T95" t="s">
+        <v>58</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="V95" s="9">
         <v>100</v>
       </c>
-      <c r="U95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6953,13 +7552,19 @@
         <v>2</v>
       </c>
       <c r="T96" t="s">
+        <v>55</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="V96" t="s">
         <v>42</v>
       </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7018,14 +7623,20 @@
       <c r="S97">
         <v>2</v>
       </c>
-      <c r="T97" s="9">
+      <c r="T97" t="s">
+        <v>57</v>
+      </c>
+      <c r="U97">
+        <v>3</v>
+      </c>
+      <c r="V97" s="9">
         <v>100</v>
       </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7085,13 +7696,19 @@
         <v>1</v>
       </c>
       <c r="T98" t="s">
+        <v>55</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="V98" t="s">
         <v>42</v>
       </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7150,14 +7767,20 @@
       <c r="S99">
         <v>3</v>
       </c>
-      <c r="T99" s="9">
+      <c r="T99" t="s">
+        <v>58</v>
+      </c>
+      <c r="U99">
+        <v>4</v>
+      </c>
+      <c r="V99" s="9">
         <v>100</v>
       </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7216,14 +7839,20 @@
       <c r="S100">
         <v>1</v>
       </c>
-      <c r="T100" s="9">
+      <c r="T100" t="s">
+        <v>57</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100" s="9">
         <v>50</v>
       </c>
-      <c r="U100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7283,13 +7912,19 @@
         <v>1</v>
       </c>
       <c r="T101" t="s">
+        <v>55</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101" t="s">
         <v>42</v>
       </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7349,13 +7984,19 @@
         <v>2</v>
       </c>
       <c r="T102" t="s">
+        <v>55</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102" t="s">
         <v>52</v>
       </c>
-      <c r="U102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7415,13 +8056,19 @@
         <v>1</v>
       </c>
       <c r="T103" t="s">
+        <v>55</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103" t="s">
         <v>42</v>
       </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7481,13 +8128,19 @@
         <v>1</v>
       </c>
       <c r="T104" t="s">
+        <v>57</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104" t="s">
         <v>42</v>
       </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7546,14 +8199,20 @@
       <c r="S105">
         <v>3</v>
       </c>
-      <c r="T105" s="9">
+      <c r="T105" t="s">
+        <v>56</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105" s="9">
         <v>50</v>
       </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7613,13 +8272,19 @@
         <v>1</v>
       </c>
       <c r="T106" t="s">
+        <v>55</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106" t="s">
         <v>52</v>
       </c>
-      <c r="U106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7678,14 +8343,20 @@
       <c r="S107">
         <v>1</v>
       </c>
-      <c r="T107" s="9">
+      <c r="T107" t="s">
+        <v>57</v>
+      </c>
+      <c r="U107">
+        <v>3</v>
+      </c>
+      <c r="V107" s="9">
         <v>50</v>
       </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7745,13 +8416,19 @@
         <v>3</v>
       </c>
       <c r="T108" t="s">
+        <v>58</v>
+      </c>
+      <c r="U108">
+        <v>4</v>
+      </c>
+      <c r="V108" t="s">
         <v>52</v>
       </c>
-      <c r="U108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7810,14 +8487,20 @@
       <c r="S109">
         <v>3</v>
       </c>
-      <c r="T109" s="9">
+      <c r="T109" t="s">
+        <v>56</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109" s="9">
         <v>100</v>
       </c>
-      <c r="U109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7877,13 +8560,19 @@
         <v>3</v>
       </c>
       <c r="T110" t="s">
+        <v>56</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110" t="s">
         <v>42</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7943,13 +8632,19 @@
         <v>2</v>
       </c>
       <c r="T111" t="s">
+        <v>57</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111" t="s">
         <v>52</v>
       </c>
-      <c r="U111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8008,14 +8703,20 @@
       <c r="S112">
         <v>1</v>
       </c>
-      <c r="T112" s="9">
+      <c r="T112" t="s">
+        <v>57</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112" s="9">
         <v>100</v>
       </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8075,13 +8776,19 @@
         <v>3</v>
       </c>
       <c r="T113" t="s">
+        <v>58</v>
+      </c>
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="V113" t="s">
         <v>42</v>
       </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8141,13 +8848,19 @@
         <v>3</v>
       </c>
       <c r="T114" t="s">
+        <v>56</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114" t="s">
         <v>52</v>
       </c>
-      <c r="U114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8206,14 +8919,20 @@
       <c r="S115">
         <v>1</v>
       </c>
-      <c r="T115" s="9">
+      <c r="T115" t="s">
+        <v>55</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115" s="9">
         <v>20</v>
       </c>
-      <c r="U115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8272,14 +8991,20 @@
       <c r="S116">
         <v>1</v>
       </c>
-      <c r="T116" s="9">
+      <c r="T116" t="s">
+        <v>55</v>
+      </c>
+      <c r="U116">
+        <v>1</v>
+      </c>
+      <c r="V116" s="9">
         <v>50</v>
       </c>
-      <c r="U116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8339,13 +9064,19 @@
         <v>1</v>
       </c>
       <c r="T117" t="s">
+        <v>57</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117" t="s">
         <v>52</v>
       </c>
-      <c r="U117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8404,14 +9135,20 @@
       <c r="S118">
         <v>2</v>
       </c>
-      <c r="T118" s="9">
+      <c r="T118" t="s">
+        <v>57</v>
+      </c>
+      <c r="U118">
+        <v>3</v>
+      </c>
+      <c r="V118" s="9">
         <v>100</v>
       </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8471,13 +9208,19 @@
         <v>3</v>
       </c>
       <c r="T119" t="s">
+        <v>56</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119" t="s">
         <v>52</v>
       </c>
-      <c r="U119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8536,14 +9279,20 @@
       <c r="S120">
         <v>2</v>
       </c>
-      <c r="T120" s="9">
+      <c r="T120" t="s">
+        <v>55</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120" s="9">
         <v>50</v>
       </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8603,13 +9352,19 @@
         <v>1</v>
       </c>
       <c r="T121" t="s">
+        <v>57</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121" t="s">
         <v>42</v>
       </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8668,14 +9423,20 @@
       <c r="S122">
         <v>1</v>
       </c>
-      <c r="T122" s="9">
+      <c r="T122" t="s">
+        <v>57</v>
+      </c>
+      <c r="U122">
+        <v>3</v>
+      </c>
+      <c r="V122" s="9">
         <v>100</v>
       </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8735,13 +9496,19 @@
         <v>1</v>
       </c>
       <c r="T123" t="s">
+        <v>57</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123" t="s">
         <v>52</v>
       </c>
-      <c r="U123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8801,13 +9568,19 @@
         <v>1</v>
       </c>
       <c r="T124" t="s">
+        <v>55</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124" t="s">
         <v>42</v>
       </c>
-      <c r="U124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8867,13 +9640,19 @@
         <v>2</v>
       </c>
       <c r="T125" t="s">
+        <v>57</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125" t="s">
         <v>52</v>
       </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8933,13 +9712,19 @@
         <v>2</v>
       </c>
       <c r="T126" t="s">
+        <v>57</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126" t="s">
         <v>52</v>
       </c>
-      <c r="U126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8999,13 +9784,19 @@
         <v>3</v>
       </c>
       <c r="T127" t="s">
+        <v>58</v>
+      </c>
+      <c r="U127">
+        <v>4</v>
+      </c>
+      <c r="V127" t="s">
         <v>52</v>
       </c>
-      <c r="U127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9065,13 +9856,19 @@
         <v>2</v>
       </c>
       <c r="T128" t="s">
+        <v>55</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="V128" t="s">
         <v>42</v>
       </c>
-      <c r="U128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9131,13 +9928,19 @@
         <v>1</v>
       </c>
       <c r="T129" t="s">
+        <v>57</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129" t="s">
         <v>42</v>
       </c>
-      <c r="U129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9197,13 +10000,19 @@
         <v>3</v>
       </c>
       <c r="T130" t="s">
+        <v>56</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130" t="s">
         <v>52</v>
       </c>
-      <c r="U130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9263,13 +10072,19 @@
         <v>2</v>
       </c>
       <c r="T131" t="s">
+        <v>59</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131" t="s">
         <v>52</v>
       </c>
-      <c r="U131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9328,14 +10143,20 @@
       <c r="S132">
         <v>1</v>
       </c>
-      <c r="T132" s="9">
+      <c r="T132" t="s">
+        <v>55</v>
+      </c>
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="V132" s="9">
         <v>100</v>
       </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9394,14 +10215,20 @@
       <c r="S133">
         <v>1</v>
       </c>
-      <c r="T133" s="9">
+      <c r="T133" t="s">
+        <v>55</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="V133" s="9">
         <v>5</v>
       </c>
-      <c r="U133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9461,13 +10288,19 @@
         <v>1</v>
       </c>
       <c r="T134" t="s">
+        <v>57</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134" t="s">
         <v>52</v>
       </c>
-      <c r="U134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9527,13 +10360,19 @@
         <v>3</v>
       </c>
       <c r="T135" t="s">
+        <v>58</v>
+      </c>
+      <c r="U135">
+        <v>4</v>
+      </c>
+      <c r="V135" t="s">
         <v>52</v>
       </c>
-      <c r="U135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9593,13 +10432,19 @@
         <v>3</v>
       </c>
       <c r="T136" t="s">
+        <v>58</v>
+      </c>
+      <c r="U136">
+        <v>4</v>
+      </c>
+      <c r="V136" t="s">
         <v>52</v>
       </c>
-      <c r="U136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9658,14 +10503,20 @@
       <c r="S137">
         <v>3</v>
       </c>
-      <c r="T137" s="9">
+      <c r="T137" t="s">
+        <v>56</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137" s="9">
         <v>100</v>
       </c>
-      <c r="U137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9725,13 +10576,19 @@
         <v>4</v>
       </c>
       <c r="T138" t="s">
+        <v>59</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138" t="s">
         <v>52</v>
       </c>
-      <c r="U138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9791,13 +10648,19 @@
         <v>2</v>
       </c>
       <c r="T139" t="s">
+        <v>59</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139" t="s">
         <v>42</v>
       </c>
-      <c r="U139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9857,13 +10720,19 @@
         <v>3</v>
       </c>
       <c r="T140" t="s">
+        <v>58</v>
+      </c>
+      <c r="U140">
+        <v>4</v>
+      </c>
+      <c r="V140" t="s">
         <v>52</v>
       </c>
-      <c r="U140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9923,13 +10792,19 @@
         <v>4</v>
       </c>
       <c r="T141" t="s">
+        <v>59</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141" t="s">
         <v>52</v>
       </c>
-      <c r="U141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9989,13 +10864,19 @@
         <v>3</v>
       </c>
       <c r="T142" t="s">
+        <v>58</v>
+      </c>
+      <c r="U142">
+        <v>4</v>
+      </c>
+      <c r="V142" t="s">
         <v>52</v>
       </c>
-      <c r="U142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -10054,14 +10935,20 @@
       <c r="S143">
         <v>1</v>
       </c>
-      <c r="T143" s="9">
+      <c r="T143" t="s">
+        <v>57</v>
+      </c>
+      <c r="U143">
+        <v>3</v>
+      </c>
+      <c r="V143" s="9">
         <v>50</v>
       </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -10121,13 +11008,19 @@
         <v>2</v>
       </c>
       <c r="T144" t="s">
+        <v>57</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144" t="s">
         <v>52</v>
       </c>
-      <c r="U144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -10187,13 +11080,19 @@
         <v>3</v>
       </c>
       <c r="T145" t="s">
+        <v>58</v>
+      </c>
+      <c r="U145">
+        <v>4</v>
+      </c>
+      <c r="V145" t="s">
         <v>52</v>
       </c>
-      <c r="U145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -10252,14 +11151,20 @@
       <c r="S146">
         <v>1</v>
       </c>
-      <c r="T146" s="9">
+      <c r="T146" t="s">
+        <v>55</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146" s="9">
         <v>50</v>
       </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -10319,13 +11224,19 @@
         <v>1</v>
       </c>
       <c r="T147" t="s">
+        <v>55</v>
+      </c>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="V147" t="s">
         <v>52</v>
       </c>
-      <c r="U147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -10385,13 +11296,19 @@
         <v>2</v>
       </c>
       <c r="T148" t="s">
+        <v>55</v>
+      </c>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="V148" t="s">
         <v>52</v>
       </c>
-      <c r="U148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10450,14 +11367,20 @@
       <c r="S149">
         <v>2</v>
       </c>
-      <c r="T149" s="9">
+      <c r="T149" t="s">
+        <v>55</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149" s="9">
         <v>20</v>
       </c>
-      <c r="U149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10516,14 +11439,20 @@
       <c r="S150">
         <v>1</v>
       </c>
-      <c r="T150" s="9">
+      <c r="T150" t="s">
+        <v>55</v>
+      </c>
+      <c r="U150">
+        <v>1</v>
+      </c>
+      <c r="V150" s="9">
         <v>100</v>
       </c>
-      <c r="U150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10582,14 +11511,20 @@
       <c r="S151">
         <v>1</v>
       </c>
-      <c r="T151" s="9">
+      <c r="T151" t="s">
+        <v>59</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151" s="9">
         <v>100</v>
       </c>
-      <c r="U151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10649,13 +11584,19 @@
         <v>1</v>
       </c>
       <c r="T152" t="s">
+        <v>57</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152" t="s">
         <v>42</v>
       </c>
-      <c r="U152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10714,14 +11655,20 @@
       <c r="S153">
         <v>1</v>
       </c>
-      <c r="T153" s="9">
+      <c r="T153" t="s">
+        <v>57</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153" s="9">
         <v>5</v>
       </c>
-      <c r="U153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10781,13 +11728,19 @@
         <v>1</v>
       </c>
       <c r="T154" t="s">
+        <v>55</v>
+      </c>
+      <c r="U154">
+        <v>1</v>
+      </c>
+      <c r="V154" t="s">
         <v>52</v>
       </c>
-      <c r="U154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10847,13 +11800,19 @@
         <v>1</v>
       </c>
       <c r="T155" t="s">
+        <v>57</v>
+      </c>
+      <c r="U155">
+        <v>3</v>
+      </c>
+      <c r="V155" t="s">
         <v>42</v>
       </c>
-      <c r="U155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10912,14 +11871,20 @@
       <c r="S156">
         <v>1</v>
       </c>
-      <c r="T156" s="9">
+      <c r="T156" t="s">
+        <v>57</v>
+      </c>
+      <c r="U156">
+        <v>3</v>
+      </c>
+      <c r="V156" s="9">
         <v>10</v>
       </c>
-      <c r="U156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10978,14 +11943,20 @@
       <c r="S157">
         <v>3</v>
       </c>
-      <c r="T157" s="9">
+      <c r="T157" t="s">
+        <v>56</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157" s="9">
         <v>100</v>
       </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -11044,14 +12015,20 @@
       <c r="S158">
         <v>1</v>
       </c>
-      <c r="T158" s="9">
+      <c r="T158" t="s">
+        <v>57</v>
+      </c>
+      <c r="U158">
+        <v>3</v>
+      </c>
+      <c r="V158" s="9">
         <v>100</v>
       </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -11111,13 +12088,19 @@
         <v>2</v>
       </c>
       <c r="T159" t="s">
+        <v>55</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
+      <c r="V159" t="s">
         <v>52</v>
       </c>
-      <c r="U159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -11177,13 +12160,19 @@
         <v>3</v>
       </c>
       <c r="T160" t="s">
+        <v>58</v>
+      </c>
+      <c r="U160">
+        <v>4</v>
+      </c>
+      <c r="V160" t="s">
         <v>52</v>
       </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -11243,13 +12232,19 @@
         <v>1</v>
       </c>
       <c r="T161" t="s">
+        <v>57</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161" t="s">
         <v>42</v>
       </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -11309,13 +12304,19 @@
         <v>4</v>
       </c>
       <c r="T162" t="s">
+        <v>58</v>
+      </c>
+      <c r="U162">
+        <v>4</v>
+      </c>
+      <c r="V162" t="s">
         <v>52</v>
       </c>
-      <c r="U162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -11375,13 +12376,19 @@
         <v>1</v>
       </c>
       <c r="T163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U163">
+        <v>3</v>
+      </c>
+      <c r="V163" t="s">
         <v>42</v>
       </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -11441,13 +12448,19 @@
         <v>1</v>
       </c>
       <c r="T164" t="s">
+        <v>57</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164" t="s">
         <v>52</v>
       </c>
-      <c r="U164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -11507,13 +12520,19 @@
         <v>1</v>
       </c>
       <c r="T165" t="s">
+        <v>57</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165" t="s">
         <v>42</v>
       </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -11573,13 +12592,19 @@
         <v>1</v>
       </c>
       <c r="T166" t="s">
+        <v>57</v>
+      </c>
+      <c r="U166">
+        <v>3</v>
+      </c>
+      <c r="V166" t="s">
         <v>52</v>
       </c>
-      <c r="U166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -11638,14 +12663,20 @@
       <c r="S167">
         <v>2</v>
       </c>
-      <c r="T167" s="9">
+      <c r="T167" t="s">
+        <v>55</v>
+      </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
+      <c r="V167" s="9">
         <v>50</v>
       </c>
-      <c r="U167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -11704,14 +12735,20 @@
       <c r="S168">
         <v>3</v>
       </c>
-      <c r="T168" s="9">
+      <c r="T168" t="s">
+        <v>56</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168" s="9">
         <v>100</v>
       </c>
-      <c r="U168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -11770,14 +12807,20 @@
       <c r="S169">
         <v>1</v>
       </c>
-      <c r="T169" s="9">
+      <c r="T169" t="s">
+        <v>55</v>
+      </c>
+      <c r="U169">
+        <v>1</v>
+      </c>
+      <c r="V169" s="9">
         <v>50</v>
       </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -11837,13 +12880,19 @@
         <v>1</v>
       </c>
       <c r="T170" t="s">
+        <v>55</v>
+      </c>
+      <c r="U170">
+        <v>1</v>
+      </c>
+      <c r="V170" t="s">
         <v>42</v>
       </c>
-      <c r="U170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -11903,13 +12952,19 @@
         <v>1</v>
       </c>
       <c r="T171" t="s">
+        <v>57</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171" t="s">
         <v>52</v>
       </c>
-      <c r="U171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -11969,13 +13024,19 @@
         <v>2</v>
       </c>
       <c r="T172" t="s">
+        <v>55</v>
+      </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="V172" t="s">
         <v>52</v>
       </c>
-      <c r="U172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -12034,14 +13095,20 @@
       <c r="S173">
         <v>1</v>
       </c>
-      <c r="T173" s="9">
+      <c r="T173" t="s">
+        <v>55</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173" s="9">
         <v>5</v>
       </c>
-      <c r="U173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -12101,13 +13168,19 @@
         <v>3</v>
       </c>
       <c r="T174" t="s">
+        <v>58</v>
+      </c>
+      <c r="U174">
+        <v>4</v>
+      </c>
+      <c r="V174" t="s">
         <v>42</v>
       </c>
-      <c r="U174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -12167,13 +13240,19 @@
         <v>2</v>
       </c>
       <c r="T175" t="s">
+        <v>55</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="V175" t="s">
         <v>42</v>
       </c>
-      <c r="U175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -12233,13 +13312,19 @@
         <v>1</v>
       </c>
       <c r="T176" t="s">
+        <v>55</v>
+      </c>
+      <c r="U176">
+        <v>1</v>
+      </c>
+      <c r="V176" t="s">
         <v>42</v>
       </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -12299,13 +13384,19 @@
         <v>4</v>
       </c>
       <c r="T177" t="s">
+        <v>56</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177" t="s">
         <v>42</v>
       </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -12365,13 +13456,19 @@
         <v>1</v>
       </c>
       <c r="T178" t="s">
+        <v>55</v>
+      </c>
+      <c r="U178">
+        <v>1</v>
+      </c>
+      <c r="V178" t="s">
         <v>42</v>
       </c>
-      <c r="U178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -12430,14 +13527,20 @@
       <c r="S179">
         <v>1</v>
       </c>
-      <c r="T179" s="9">
+      <c r="T179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179" s="9">
         <v>100</v>
       </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -12496,14 +13599,20 @@
       <c r="S180">
         <v>2</v>
       </c>
-      <c r="T180" s="9">
+      <c r="T180" t="s">
+        <v>57</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180" s="9">
         <v>100</v>
       </c>
-      <c r="U180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -12562,14 +13671,20 @@
       <c r="S181">
         <v>1</v>
       </c>
-      <c r="T181" s="9">
+      <c r="T181" t="s">
+        <v>57</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181" s="9">
         <v>50</v>
       </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -12629,13 +13744,19 @@
         <v>2</v>
       </c>
       <c r="T182" t="s">
+        <v>55</v>
+      </c>
+      <c r="U182">
+        <v>1</v>
+      </c>
+      <c r="V182" t="s">
         <v>42</v>
       </c>
-      <c r="U182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -12694,14 +13815,20 @@
       <c r="S183">
         <v>3</v>
       </c>
-      <c r="T183" s="9">
+      <c r="T183" t="s">
+        <v>59</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183" s="9">
         <v>50</v>
       </c>
-      <c r="U183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -12760,14 +13887,20 @@
       <c r="S184">
         <v>1</v>
       </c>
-      <c r="T184" s="9">
+      <c r="T184" t="s">
+        <v>59</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184" s="9">
         <v>100</v>
       </c>
-      <c r="U184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -12826,14 +13959,20 @@
       <c r="S185">
         <v>1</v>
       </c>
-      <c r="T185" s="9">
+      <c r="T185" t="s">
+        <v>55</v>
+      </c>
+      <c r="U185">
+        <v>1</v>
+      </c>
+      <c r="V185" s="9">
         <v>20</v>
       </c>
-      <c r="U185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -12893,13 +14032,19 @@
         <v>1</v>
       </c>
       <c r="T186" t="s">
+        <v>57</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186" t="s">
         <v>52</v>
       </c>
-      <c r="U186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -12959,13 +14104,19 @@
         <v>1</v>
       </c>
       <c r="T187" t="s">
+        <v>55</v>
+      </c>
+      <c r="U187">
+        <v>1</v>
+      </c>
+      <c r="V187" t="s">
         <v>52</v>
       </c>
-      <c r="U187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -13024,14 +14175,20 @@
       <c r="S188">
         <v>3</v>
       </c>
-      <c r="T188" s="9">
+      <c r="T188" t="s">
+        <v>58</v>
+      </c>
+      <c r="U188">
+        <v>4</v>
+      </c>
+      <c r="V188" s="9">
         <v>50</v>
       </c>
-      <c r="U188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -13090,14 +14247,20 @@
       <c r="S189">
         <v>2</v>
       </c>
-      <c r="T189" s="9">
+      <c r="T189" t="s">
+        <v>57</v>
+      </c>
+      <c r="U189">
+        <v>3</v>
+      </c>
+      <c r="V189" s="9">
         <v>100</v>
       </c>
-      <c r="U189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -13156,14 +14319,20 @@
       <c r="S190">
         <v>2</v>
       </c>
-      <c r="T190" s="9">
+      <c r="T190" t="s">
+        <v>55</v>
+      </c>
+      <c r="U190">
+        <v>1</v>
+      </c>
+      <c r="V190" s="9">
         <v>100</v>
       </c>
-      <c r="U190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -13223,13 +14392,19 @@
         <v>1</v>
       </c>
       <c r="T191" t="s">
+        <v>57</v>
+      </c>
+      <c r="U191">
+        <v>3</v>
+      </c>
+      <c r="V191" t="s">
         <v>42</v>
       </c>
-      <c r="U191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -13288,14 +14463,20 @@
       <c r="S192">
         <v>3</v>
       </c>
-      <c r="T192" s="9">
+      <c r="T192" t="s">
+        <v>58</v>
+      </c>
+      <c r="U192">
+        <v>4</v>
+      </c>
+      <c r="V192" s="9">
         <v>100</v>
       </c>
-      <c r="U192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -13355,13 +14536,19 @@
         <v>3</v>
       </c>
       <c r="T193" t="s">
+        <v>58</v>
+      </c>
+      <c r="U193">
+        <v>4</v>
+      </c>
+      <c r="V193" t="s">
         <v>52</v>
       </c>
-      <c r="U193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -13421,13 +14608,19 @@
         <v>3</v>
       </c>
       <c r="T194" t="s">
+        <v>56</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194" t="s">
         <v>52</v>
       </c>
-      <c r="U194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -13487,13 +14680,19 @@
         <v>1</v>
       </c>
       <c r="T195" t="s">
+        <v>57</v>
+      </c>
+      <c r="U195">
+        <v>3</v>
+      </c>
+      <c r="V195" t="s">
         <v>42</v>
       </c>
-      <c r="U195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -13552,14 +14751,20 @@
       <c r="S196">
         <v>1</v>
       </c>
-      <c r="T196" s="9">
+      <c r="T196" t="s">
+        <v>57</v>
+      </c>
+      <c r="U196">
+        <v>3</v>
+      </c>
+      <c r="V196" s="9">
         <v>100</v>
       </c>
-      <c r="U196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -13619,13 +14824,19 @@
         <v>1</v>
       </c>
       <c r="T197" t="s">
+        <v>55</v>
+      </c>
+      <c r="U197">
+        <v>1</v>
+      </c>
+      <c r="V197" t="s">
         <v>42</v>
       </c>
-      <c r="U197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -13685,14 +14896,20 @@
         <v>1</v>
       </c>
       <c r="T198" t="s">
+        <v>57</v>
+      </c>
+      <c r="U198">
+        <v>3</v>
+      </c>
+      <c r="V198" t="s">
         <v>42</v>
       </c>
-      <c r="U198">
+      <c r="W198">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U198" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}"/>
+  <autoFilter ref="A1:W202" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13705,12 +14922,12 @@
       <selection activeCell="B14" sqref="B14:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -13721,7 +14938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>2021</v>
       </c>
@@ -13743,7 +14960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -13765,7 +14982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>2021</v>
       </c>
@@ -13787,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>2021</v>
       </c>
@@ -13809,7 +15026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>2022</v>
       </c>
@@ -13831,7 +15048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>2022</v>
       </c>
@@ -13853,7 +15070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>2022</v>
       </c>
@@ -13875,7 +15092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>2022</v>
       </c>
@@ -13897,7 +15114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F10">
         <v>2022</v>
       </c>
@@ -13909,7 +15126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F11">
         <v>2022</v>
       </c>
@@ -13921,7 +15138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -13938,7 +15155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F13">
         <v>2022</v>
       </c>
@@ -13950,7 +15167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>2021</v>
       </c>
@@ -13971,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>2021</v>
       </c>
@@ -13992,7 +15209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>2021</v>
       </c>
@@ -14003,7 +15220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>2021</v>
       </c>
@@ -14019,7 +15236,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>2022</v>
       </c>
@@ -14030,7 +15247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>2022</v>
       </c>
@@ -14050,7 +15267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>2022</v>
       </c>
@@ -14071,7 +15288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B21">
         <v>2022</v>
       </c>
@@ -14092,7 +15309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F22">
         <v>2021</v>
       </c>
@@ -14104,7 +15321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F23">
         <v>2021</v>
       </c>
@@ -14116,7 +15333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F24">
         <v>2021</v>
       </c>
@@ -14128,7 +15345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F25">
         <v>2021</v>
       </c>
@@ -14140,7 +15357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F26">
         <v>2021</v>
       </c>
@@ -14152,7 +15369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F27">
         <v>2022</v>
       </c>
@@ -14164,7 +15381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F28">
         <v>2022</v>
       </c>
@@ -14176,7 +15393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F29">
         <v>2022</v>
       </c>
@@ -14188,7 +15405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F30">
         <v>2022</v>
       </c>
@@ -14200,7 +15417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F31">
         <v>2022</v>
       </c>
@@ -14212,7 +15429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.5">
       <c r="F32">
         <v>2022</v>
       </c>
@@ -14224,7 +15441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.5">
       <c r="F33">
         <v>2022</v>
       </c>
